--- a/ModelsData/gab_lulc_dev2.xlsx
+++ b/ModelsData/gab_lulc_dev2.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gotmi\Documents\GradSchool\CIVE665\HW1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msc94\Documents\GitHub\GrandAnseBeach_SWMM\ModelsData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{939D3E23-19D7-43A5-A2D0-E1AEF6621928}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
   </bookViews>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$33</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -195,6 +194,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,8 +674,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3627,7 +3630,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3674,7 +3677,7 @@
         <f>E2*D2</f>
         <v>39.19242096</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>SUM(F2:F4)/SUM(D2:D4)*100</f>
         <v>56.436889019945887</v>
       </c>
@@ -3744,7 +3747,7 @@
         <f t="shared" si="0"/>
         <v>5.22087594</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f>SUM(F6:F8)/SUM(D6:D8)*100</f>
         <v>7.2360764173792944</v>
       </c>
@@ -3820,7 +3823,7 @@
         <f t="shared" si="0"/>
         <v>4.5058499400000001</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f>SUM(F10:F13)/SUM(D10:D13)*100</f>
         <v>17.146176614684023</v>
       </c>
@@ -3912,7 +3915,7 @@
         <f t="shared" si="0"/>
         <v>23.732400539999997</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <f>SUM(F15:F17)/SUM(D15:D17)*100</f>
         <v>43.88367060494582</v>
       </c>
@@ -3982,7 +3985,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <f>SUM(F19:F23)/SUM(D19:D23)*100</f>
         <v>32.733316399791654</v>
       </c>
@@ -4096,7 +4099,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <f>SUM(F25:F30)/SUM(D25:D30)*100</f>
         <v>24.15406628856126</v>
       </c>
